--- a/biology/Zoologie/Danio_margaritatus/Danio_margaritatus.xlsx
+++ b/biology/Zoologie/Danio_margaritatus/Danio_margaritatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Danio margaritatus[2] est une espèce de poissons d'eau douce. L'espèce a été décrite par Tyson Roberts en 2006 en donnant le nom commun de Danio Perlé Celeste. D'autres noms lui sont donnés successivement, en fonction des études sur les rasborins : Rasbora galaxy, Microrasbora galaxy, Celestichthys margaritatus. Finalement, un remaniement du groupe des rasborins le voit transféré en Danio margaritatus.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Danio margaritatus est une espèce de poissons d'eau douce. L'espèce a été décrite par Tyson Roberts en 2006 en donnant le nom commun de Danio Perlé Celeste. D'autres noms lui sont donnés successivement, en fonction des études sur les rasborins : Rasbora galaxy, Microrasbora galaxy, Celestichthys margaritatus. Finalement, un remaniement du groupe des rasborins le voit transféré en Danio margaritatus.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La livrée de ces poissons est très colorée :
 le corps est bleu foncé (femelle) ou bleu métallisé (mâle) avec des taches rondes, ovoïdes de coloration jaunâtre ;
@@ -545,7 +559,9 @@
           <t>Dimorphisme sexuel</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La femelle est nettement moins colorée que le mâle avec un corps plus jaune et un bleu plus sombre. Les nageoires sont plus transparentes avec des pelviennes incolores. Le corps est également plus arrondi.
 </t>
@@ -576,7 +592,9 @@
           <t>Fiche de maintenance détaillée</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Qualité de l'eau :
 température en milieu naturel : 20 à 24 °C
@@ -613,7 +631,9 @@
           <t>Protocole d'élevage et reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Réalisé par quelques aquariophiles. Un ou plusieurs mâles paradent devant la femelle. Puis ils entraînent celle-ci vers le lieu de ponte qui peut être une plante, mousse de Java, ou une mop. Après expulsion des œufs par la femelle, les mâles aspergent ceux-ci de sperme. La ponte est connue pour libérer une trentaine d'œufs. Les œufs éclosent en 3 à 4 jours à 24,4 °C. La nage libre intervient en quelques heures. Les alevins grandissent rapidement avec un apport de nourriture adapté. Les alevins seront nourris avec une micro nourriture vivante (micro vers, etc.) ou sèche si elle est acceptée. La livrée adulte typique des parents du Microrasbora galaxy apparaît après 12 semaines. La reproduction en bac spécifique évite aux œufs d'être dévorés par les prédateurs.
 </t>
